--- a/results/mp/logistic/home-spam/confidence/42/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/42/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,10 +40,16 @@
     <t>name</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>return</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>poor</t>
   </si>
   <si>
     <t>stopped</t>
@@ -52,96 +58,126 @@
     <t>waste</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>filters</t>
   </si>
   <si>
     <t>broke</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>useless</t>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>months</t>
   </si>
   <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>iron</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>filter</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>half</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>lid</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>side</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>received</t>
   </si>
   <si>
+    <t>rust</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
     <t>piece</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>back</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>rust</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>fit</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
@@ -151,9 +187,18 @@
     <t>2</t>
   </si>
   <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>even</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
@@ -166,6 +211,12 @@
     <t>get</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
@@ -178,24 +229,24 @@
     <t>negative</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loves</t>
+    <t>love</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
@@ -208,22 +259,13 @@
     <t>happy</t>
   </si>
   <si>
-    <t>ze</t>
+    <t>great</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>ox</t>
-  </si>
-  <si>
     <t>easy</t>
-  </si>
-  <si>
-    <t>sturdy</t>
   </si>
   <si>
     <t>nice</t>
@@ -596,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,10 +646,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -665,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9380530973451328</v>
+        <v>0.9494949494949495</v>
       </c>
       <c r="C3">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -683,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="K3">
-        <v>0.8125</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="L3">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="M3">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -707,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -715,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.9292035398230089</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -733,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="K4">
-        <v>0.7826086956521739</v>
+        <v>0.7578125</v>
       </c>
       <c r="L4">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="M4">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -757,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -765,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8679245283018868</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="C5">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -783,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="K5">
-        <v>0.7593220338983051</v>
+        <v>0.7254237288135593</v>
       </c>
       <c r="L5">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="M5">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -807,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -815,13 +857,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.864406779661017</v>
+        <v>0.92</v>
       </c>
       <c r="C6">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -833,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="K6">
-        <v>0.7096774193548387</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L6">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -857,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -865,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.82</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -883,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="K7">
-        <v>0.6753246753246753</v>
+        <v>0.653250773993808</v>
       </c>
       <c r="L7">
-        <v>52</v>
+        <v>422</v>
       </c>
       <c r="M7">
-        <v>52</v>
+        <v>422</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -907,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>25</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -915,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7945945945945946</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="C8">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="D8">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -933,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="K8">
-        <v>0.6702786377708978</v>
+        <v>0.6493506493506493</v>
       </c>
       <c r="L8">
-        <v>433</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>433</v>
+        <v>50</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -957,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>213</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -965,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7884615384615384</v>
+        <v>0.825</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -983,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="K9">
-        <v>0.5757575757575758</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1007,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1015,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7272727272727273</v>
+        <v>0.7884615384615384</v>
       </c>
       <c r="C10">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D10">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1033,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="K10">
-        <v>0.4078947368421053</v>
+        <v>0.5</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1057,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1065,13 +1107,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.725</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1083,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="K11">
-        <v>0.3873873873873874</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L11">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1107,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1115,13 +1157,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7169811320754716</v>
+        <v>0.7675675675675676</v>
       </c>
       <c r="C12">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="D12">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1133,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="K12">
-        <v>0.3620689655172414</v>
+        <v>0.3390804597701149</v>
       </c>
       <c r="L12">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N12">
         <v>0.98</v>
@@ -1157,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1186,28 +1228,28 @@
         <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="K13">
-        <v>0.3209876543209876</v>
+        <v>0.3065164923572003</v>
       </c>
       <c r="L13">
-        <v>26</v>
+        <v>381</v>
       </c>
       <c r="M13">
-        <v>26</v>
+        <v>384</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>55</v>
+        <v>862</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1215,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6764705882352942</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C14">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1233,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14">
+        <v>0.3013698630136986</v>
+      </c>
+      <c r="L14">
         <v>22</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K14">
-        <v>0.3150684931506849</v>
-      </c>
-      <c r="L14">
-        <v>23</v>
-      </c>
       <c r="M14">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1257,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1265,13 +1307,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6201550387596899</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="C15">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D15">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1283,31 +1325,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="K15">
-        <v>0.3110932475884244</v>
+        <v>0.1643835616438356</v>
       </c>
       <c r="L15">
-        <v>387</v>
+        <v>120</v>
       </c>
       <c r="M15">
-        <v>389</v>
+        <v>120</v>
       </c>
       <c r="N15">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>857</v>
+        <v>610</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1315,13 +1357,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6037735849056604</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="C16">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1333,31 +1375,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="K16">
-        <v>0.1679389312977099</v>
+        <v>0.06633906633906633</v>
       </c>
       <c r="L16">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>109</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1365,13 +1407,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="C17">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D17">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1383,31 +1425,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="K17">
-        <v>0.1565934065934066</v>
+        <v>0.04806408544726302</v>
       </c>
       <c r="L17">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="N17">
-        <v>0.98</v>
+        <v>0.86</v>
       </c>
       <c r="O17">
-        <v>0.02000000000000002</v>
+        <v>0.14</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>614</v>
+        <v>713</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1415,13 +1457,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5777777777777777</v>
+        <v>0.632183908045977</v>
       </c>
       <c r="C18">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1433,31 +1475,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="K18">
-        <v>0.155688622754491</v>
+        <v>0.03727506426735219</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>141</v>
+        <v>749</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1465,13 +1507,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5641025641025641</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C19">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="D19">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1483,31 +1525,31 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>50</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19">
+        <v>0.03243243243243243</v>
+      </c>
+      <c r="L19">
+        <v>30</v>
+      </c>
+      <c r="M19">
         <v>34</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K19">
-        <v>0.08353808353808354</v>
-      </c>
-      <c r="L19">
-        <v>34</v>
-      </c>
-      <c r="M19">
-        <v>35</v>
-      </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>0.88</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0.12</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>373</v>
+        <v>895</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1515,13 +1557,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5633802816901409</v>
+        <v>0.6025641025641025</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1534,30 +1576,6 @@
       </c>
       <c r="H20">
         <v>31</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K20">
-        <v>0.04793608521970705</v>
-      </c>
-      <c r="L20">
-        <v>36</v>
-      </c>
-      <c r="M20">
-        <v>40</v>
-      </c>
-      <c r="N20">
-        <v>0.9</v>
-      </c>
-      <c r="O20">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P20" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q20">
-        <v>715</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1565,13 +1583,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5632183908045977</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="C21">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D21">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1583,31 +1601,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>38</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K21">
-        <v>0.03722721437740693</v>
-      </c>
-      <c r="L21">
-        <v>29</v>
-      </c>
-      <c r="M21">
-        <v>32</v>
-      </c>
-      <c r="N21">
-        <v>0.91</v>
-      </c>
-      <c r="O21">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P21" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q21">
-        <v>750</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1615,13 +1609,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5444444444444444</v>
+        <v>0.5633802816901409</v>
       </c>
       <c r="C22">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1633,31 +1627,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>41</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22">
-        <v>0.03135135135135135</v>
-      </c>
-      <c r="L22">
-        <v>29</v>
-      </c>
-      <c r="M22">
-        <v>33</v>
-      </c>
-      <c r="N22">
-        <v>0.88</v>
-      </c>
-      <c r="O22">
-        <v>0.12</v>
-      </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>896</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1665,13 +1635,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5398230088495575</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C23">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D23">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1683,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1691,13 +1661,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5135135135135135</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="C24">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D24">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1709,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1717,25 +1687,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4423076923076923</v>
+        <v>0.5374149659863946</v>
       </c>
       <c r="C25">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D25">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1743,13 +1713,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.404040404040404</v>
+        <v>0.504424778761062</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1761,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1769,13 +1739,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3980582524271845</v>
+        <v>0.5</v>
       </c>
       <c r="C27">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D27">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1787,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1795,13 +1765,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3798882681564246</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C28">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="D28">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1813,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>111</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1821,13 +1791,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.358974358974359</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C29">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="D29">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1839,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1847,13 +1817,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2722371967654987</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="C30">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="D30">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1865,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>270</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1873,13 +1843,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2716049382716049</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="C31">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="D31">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1891,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1899,13 +1869,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2619047619047619</v>
+        <v>0.4271844660194175</v>
       </c>
       <c r="C32">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D32">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1917,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1925,13 +1895,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.25</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C33">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1943,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>150</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1951,13 +1921,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2450331125827815</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C34">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D34">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1969,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>114</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1977,13 +1947,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.23</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1995,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2003,13 +1973,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2142857142857143</v>
+        <v>0.329608938547486</v>
       </c>
       <c r="C36">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="D36">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2021,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>165</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2029,13 +1999,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2006802721088435</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="C37">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="D37">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2047,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>235</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2055,13 +2025,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1793103448275862</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="C38">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D38">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2073,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>119</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2081,13 +2051,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1720430107526882</v>
+        <v>0.3218390804597701</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D39">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2099,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>154</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2107,13 +2077,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1353711790393013</v>
+        <v>0.3</v>
       </c>
       <c r="C40">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D40">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2125,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>198</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2133,25 +2103,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1267029972752044</v>
+        <v>0.29</v>
       </c>
       <c r="C41">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D41">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="E41">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>641</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2159,13 +2129,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1204013377926421</v>
+        <v>0.288659793814433</v>
       </c>
       <c r="C42">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D42">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2177,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>263</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2185,25 +2155,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1109660574412533</v>
+        <v>0.2771084337349398</v>
       </c>
       <c r="C43">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="E43">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>681</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2211,13 +2181,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1024390243902439</v>
+        <v>0.2566371681415929</v>
       </c>
       <c r="C44">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D44">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2229,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>368</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2237,13 +2207,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.05583756345177665</v>
+        <v>0.2516556291390729</v>
       </c>
       <c r="C45">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D45">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2255,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>372</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2263,25 +2233,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.04608695652173913</v>
+        <v>0.245</v>
       </c>
       <c r="C46">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D46">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E46">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>1097</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2289,25 +2259,467 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02913533834586466</v>
+        <v>0.2427184466019418</v>
       </c>
       <c r="C47">
+        <v>25</v>
+      </c>
+      <c r="D47">
+        <v>25</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.2345013477088949</v>
+      </c>
+      <c r="C48">
+        <v>87</v>
+      </c>
+      <c r="D48">
+        <v>87</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.2074829931972789</v>
+      </c>
+      <c r="C49">
+        <v>61</v>
+      </c>
+      <c r="D49">
+        <v>61</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.2068965517241379</v>
+      </c>
+      <c r="C50">
+        <v>30</v>
+      </c>
+      <c r="D50">
+        <v>30</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.1837837837837838</v>
+      </c>
+      <c r="C51">
+        <v>34</v>
+      </c>
+      <c r="D51">
+        <v>35</v>
+      </c>
+      <c r="E51">
+        <v>0.03</v>
+      </c>
+      <c r="F51">
+        <v>0.97</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.1703296703296703</v>
+      </c>
+      <c r="C52">
         <v>31</v>
       </c>
-      <c r="D47">
+      <c r="D52">
+        <v>31</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.1460674157303371</v>
+      </c>
+      <c r="C53">
+        <v>26</v>
+      </c>
+      <c r="D53">
+        <v>26</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.1310043668122271</v>
+      </c>
+      <c r="C54">
+        <v>30</v>
+      </c>
+      <c r="D54">
+        <v>30</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.1262626262626263</v>
+      </c>
+      <c r="C55">
+        <v>25</v>
+      </c>
+      <c r="D55">
+        <v>25</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.121418826739427</v>
+      </c>
+      <c r="C56">
+        <v>89</v>
+      </c>
+      <c r="D56">
+        <v>91</v>
+      </c>
+      <c r="E56">
+        <v>0.02</v>
+      </c>
+      <c r="F56">
+        <v>0.98</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.1036789297658863</v>
+      </c>
+      <c r="C57">
+        <v>31</v>
+      </c>
+      <c r="D57">
+        <v>31</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.1029986962190352</v>
+      </c>
+      <c r="C58">
+        <v>79</v>
+      </c>
+      <c r="D58">
+        <v>79</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.09535452322738386</v>
+      </c>
+      <c r="C59">
         <v>39</v>
       </c>
-      <c r="E47">
-        <v>0.21</v>
-      </c>
-      <c r="F47">
-        <v>0.79</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>1033</v>
+      <c r="D59">
+        <v>40</v>
+      </c>
+      <c r="E59">
+        <v>0.03</v>
+      </c>
+      <c r="F59">
+        <v>0.97</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="C60">
+        <v>23</v>
+      </c>
+      <c r="D60">
+        <v>23</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.06356968215158924</v>
+      </c>
+      <c r="C61">
+        <v>26</v>
+      </c>
+      <c r="D61">
+        <v>28</v>
+      </c>
+      <c r="E61">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F61">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.05597964376590331</v>
+      </c>
+      <c r="C62">
+        <v>22</v>
+      </c>
+      <c r="D62">
+        <v>23</v>
+      </c>
+      <c r="E62">
+        <v>0.04</v>
+      </c>
+      <c r="F62">
+        <v>0.96</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.04969485614646905</v>
+      </c>
+      <c r="C63">
+        <v>57</v>
+      </c>
+      <c r="D63">
+        <v>67</v>
+      </c>
+      <c r="E63">
+        <v>0.15</v>
+      </c>
+      <c r="F63">
+        <v>0.85</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.02626641651031895</v>
+      </c>
+      <c r="C64">
+        <v>28</v>
+      </c>
+      <c r="D64">
+        <v>34</v>
+      </c>
+      <c r="E64">
+        <v>0.18</v>
+      </c>
+      <c r="F64">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
